--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/3 REVISION DE CONTRATOS.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/3 REVISION DE CONTRATOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04811620-689F-472C-9130-DDF198C0DDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED0D4D-71AF-4C46-BC06-05C33306EFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,10 +294,10 @@
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
-    <t>Del 01 de Enero de 2023 al 31 de Diciembre de 2023</t>
-  </si>
-  <si>
     <t>PL-3.15</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -698,9 +698,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -821,6 +818,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,7 +1167,7 @@
   <dimension ref="A2:Z1020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1187,19 +1187,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="73"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="I3" s="68" t="s">
-        <v>88</v>
+      <c r="B3" s="72"/>
+      <c r="I3" s="67" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1">
-      <c r="B4" s="73"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="73"/>
+      <c r="B5" s="72"/>
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,1045 +1224,1051 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="15.75">
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="75" t="s">
         <v>86</v>
       </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:12" ht="15.75">
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="75" t="s">
         <v>35</v>
       </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:12" ht="15.75">
-      <c r="E11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="D11" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="2:12" ht="27" customHeight="1">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="2:12" ht="15.75">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="2:12" ht="15.75">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:12" ht="15.75">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:12" ht="15.75">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="15.75">
-      <c r="B17" s="52"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="51"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="15.75">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="15.75">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="24" spans="1:26" ht="34.5" customHeight="1">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:26" ht="21" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
     </row>
     <row r="28" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="33" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B42" s="27"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B44" s="54"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="2:10" ht="35.1" customHeight="1">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" spans="2:10" ht="35.1" customHeight="1">
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="2:10" ht="45.75" customHeight="1">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="2:10" ht="35.1" customHeight="1">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" spans="2:10" ht="35.1" customHeight="1">
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B50" s="54"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" spans="2:10" ht="18.75" customHeight="1"/>
     <row r="52" spans="2:10" ht="18.75" customHeight="1"/>
     <row r="53" spans="2:10" ht="28.5" customHeight="1"/>
     <row r="54" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
     </row>
     <row r="55" spans="2:10" ht="21" customHeight="1">
-      <c r="B55" s="50"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" spans="2:10" ht="45" customHeight="1">
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="2:10" ht="45" customHeight="1">
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" spans="2:10" ht="45" customHeight="1">
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60" spans="2:10" ht="45" customHeight="1">
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="2:10" ht="45" customHeight="1">
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B62" s="27"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1">
-      <c r="H63" s="28"/>
-      <c r="I63" s="29" t="s">
+      <c r="H63" s="27"/>
+      <c r="I63" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="30"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G64" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="31" t="s">
+      <c r="I64" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J64" s="32" t="s">
+      <c r="J64" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="72" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B73" s="58"/>
+      <c r="B73" s="57"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="58" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="59" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B76" s="59" t="s">
+      <c r="B76" s="58" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="59" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="64"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="61"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
+      <c r="C83" s="60"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="51" t="s">
+      <c r="B84" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
     </row>
     <row r="86" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B86" s="36"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
     </row>
     <row r="87" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B87" s="38"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
     </row>
     <row r="89" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="64"/>
     </row>
     <row r="90" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="65"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="64"/>
     </row>
     <row r="91" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="41"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="40"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
     </row>
     <row r="92" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
     </row>
     <row r="93" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="64"/>
     </row>
     <row r="94" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64"/>
     </row>
     <row r="95" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
     </row>
     <row r="96" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
     </row>
     <row r="97" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="98" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="99" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="100" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="44"/>
-      <c r="H100" s="43" t="s">
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="43"/>
+      <c r="H100" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I100" s="43"/>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H101" s="46" t="s">
+      <c r="H101" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="103" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="104" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B104" s="75"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="72"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="71"/>
     </row>
     <row r="105" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B105" s="70"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="72"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="71"/>
     </row>
     <row r="106" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B106" s="75"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="72"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="71"/>
     </row>
     <row r="107" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B107" s="70"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="72"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="71"/>
     </row>
     <row r="108" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B108" s="47"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
     </row>
     <row r="109" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="110" spans="2:9" ht="15.75" customHeight="1"/>
@@ -3177,13 +3183,16 @@
     <row r="1019" ht="15.75" customHeight="1"/>
     <row r="1020" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B107:I107"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B104:I104"/>
     <mergeCell ref="B105:I105"/>
     <mergeCell ref="B106:I106"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
